--- a/Translated/MoviePilot-main/app/plugins/dirmonitor/__init__.py_Translated.xlsx
+++ b/Translated/MoviePilot-main/app/plugins/dirmonitor/__init__.py_Translated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,24 +760,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t># 存储目的目录</t>
+          <t># 自定义转移方式</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#  Storage destination directory</t>
+          <t>#  Customizing the transfer method</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t># 自定义转移方式</t>
+          <t># 存储目的目录</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#  Customizing the transfer method</t>
+          <t>#  Storage destination directory</t>
         </is>
       </c>
     </row>
@@ -1828,58 +1828,70 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>'监控目录:转移目的目录（需同时在媒体库目录中配置该目的目录）\n'</t>
+          <t>'监控目录#转移方式（move|copy|link|softlink）\n'</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>' Monitor catalog: Transfer purpose catalog（ You must also configure the destination directory in the media library directory.）\n'</t>
+          <t>' Monitor catalog# Migration pattern（move|copy|link|softlink）\n'</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>'监控目录:转移目的目录#转移方式（move|copy|link|softlink）'</t>
+          <t>'监控目录:转移目的目录（需同时在媒体库目录中配置该目的目录）\n'</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>' Monitor catalog: Transfer purpose catalog# Migration pattern（move|copy|link|softlink）'</t>
+          <t>' Monitor catalog: Transfer purpose catalog（ You must also configure the destination directory in the media library directory.）\n'</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>'label': '排除关键词',</t>
+          <t>'监控目录:转移目的目录#转移方式（move|copy|link|softlink）'</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>'label': ' Exclude keywords',</t>
+          <t>' Monitor catalog: Transfer purpose catalog# Migration pattern（move|copy|link|softlink）'</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>'placeholder': '每一行一个关键词'</t>
+          <t>'label': '排除关键词',</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>'placeholder': ' One keyword per line'</t>
+          <t>'label': ' Exclude keywords',</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>'placeholder': '每一行一个关键词'</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>'placeholder': ' One keyword per line'</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>退出插件</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Exit plugin</t>
         </is>
